--- a/Tos.FoodProcs.Web/templates/genshizaiHendoHyo_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/genshizaiHendoHyo_vi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\1.FP_Lite_Ver_2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1ABB66-5BCE-4A00-A636-50330B8B7484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A5123-3A4B-458D-B7E8-00E456B1A6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,87 +70,43 @@
     <t>Tồn kho thực tế</t>
   </si>
   <si>
+    <t>Ngày</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Mã nguyên vật liệu     </t>
+      <t>Mã nguyên vật liệu</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="MSゴシック"/>
-        <family val="2"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">：
+      <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tên nguyên vật liệu    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MSゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ghi chú                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MSゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ngày         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MSゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MSゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>　：</t>
-    </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghi chú                </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Tên nguyên vật liệu</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="@* &quot;：&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -190,11 +146,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="MSゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="MSゴシック"/>
       <family val="3"/>
@@ -203,6 +154,12 @@
     <font>
       <sz val="11"/>
       <name val="MSゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -495,11 +452,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -841,10 +798,10 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="32"/>
+      <c r="A2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="31"/>
       <c r="D2" s="2"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -854,10 +811,10 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="32"/>
+      <c r="A3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="31"/>
       <c r="D3" s="2"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -867,10 +824,10 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="32"/>
+      <c r="A4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="31"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -881,10 +838,10 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
